--- a/02_MasterWifoMannheim/99_Backup/Course105.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course105.xlsx
@@ -1,139 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD32051265F59281159EE98F05495E6EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C78ECB1-38B3-48AE-B587-8C653E406757}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MAN 630 Introduction to Entrepreneurship</t>
-  </si>
-  <si>
-    <t>C Yontents</t>
-  </si>
-  <si>
-    <t>University of Mannheim alumni founders, such as Handlos and Florian Barth (Stocard), (e-shelter), are examples of successful entrepreneurs who have pursued new business opportunities in a way which is innovative, path-breaking and contributing to growth and employment generation. But who is a typical entrepreneur? How well does the typical startup perform? Is there such a thing as the typical entrepreneur or the typical startup? Why do people start businesses? Is every young business a startup? What characteristics do entrepreneurs have? entrepreneurs finance their start-up? What is the role of networks for launching and running new businesses? These are some of the questions that we will discuss in Introduction to additional case study sessions in which student teams will present their solutions and advice to startup challenges. Theories presented will be combined with real-life cases. guest speakers (i.e., entrepreneurs and/or academics) may come to class to shed light on specific topics of interest or how they have overcome challenges. Beware of the following upsides and downsides: The course is tons of fun and highly rewarding but challenging and demanding in terms of its self-study elements and the case study team efforts. If your expectation is a class with lectures to randomly attend, this might not be your first choice. What you can expect from us is a fun and rewarding atmosphere in class paired with optional Founder Talks and Startup Lounges (evening events) throughout the semester to get in touch with lots of role models, business models and a fair chance to develop your networks. Overall, you can expect a perfect introduction to central theories in entrepreneurship and the Startup Ecosystem at and around the University of Mannheim and beyond. Side note on choosing MAN 630 vs. alternatives: You should choose MAN 630 if you...  are interested in combining insights from lectures with readings at home and with insights gained from speakers in Startup maximize your learning.  are interested in startups and entrepreneurship in general and want to gain a top-level view on both entrepreneurship in theory and practice.  like the practical world but do not want to lose sight of the underlying academic foundations.  love aiming for the big picture and love discussing topics of interest from a variety of angles.  do not like courses based on keywords and phrases to learn but on concepts to put into perspective and forming your own sophisticated line of argumentation. ou should, however, not choose MAN 630 if you...  expect this to be a multiple-choice-style course of memorizing material and then jotting buzzwords down on the exam. of readings will get you frustrated – focus is set on understanding concepts rather than memorizing them.</t>
-  </si>
-  <si>
-    <t> expect teaching staff to tell you what to learn and what to forget – this is up to you (see point above).  want to develop or advance your own startup project in class. Apply for MCEI courses MAN 631 or our MAN 633 Own Venture Track instead.  want to advance an existing startup project and get the feeling of what it is like to work in a startup with all the responsibilities this brings along, join our MAN 633 Inside the Venture Track instead.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>By the end of this course, students will have gained fundamental perspectives in theoretical and practical entrepreneurial mechanisms. They will gain experience with case studies.</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:www.mcei.de/teaching, “Student Portal” (more information about the registration process is available here)</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 10</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (50%), Presentations (40%), Peer Evaluation (10%)</t>
-  </si>
-  <si>
-    <t>Preliminary course work</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Michael Woywode</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 Semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.A. K&amp;W, LL.M., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,145 +420,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAN 630 Introduction to Entrepreneurship</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C Yontents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>University of Mannheim alumni founders, such as Handlos and Florian Barth (Stocard), (e-shelter), are examples of successful entrepreneurs who have pursued new business opportunities in a way which is innovative, path-breaking and contributing to growth and employment generation. But who is a typical entrepreneur? How well does the typical startup perform? Is there such a thing as the typical entrepreneur or the typical startup? Why do people start businesses? Is every young business a startup? What characteristics do entrepreneurs have? entrepreneurs finance their start-up? What is the role of networks for launching and running new businesses? These are some of the questions that we will discuss in Introduction to additional case study sessions in which student teams will present their solutions and advice to startup challenges. Theories presented will be combined with real-life cases. guest speakers (i.e., entrepreneurs and/or academics) may come to class to shed light on specific topics of interest or how they have overcome challenges. Beware of the following upsides and downsides: The course is tons of fun and highly rewarding but challenging and demanding in terms of its self-study elements and the case study team efforts. If your expectation is a class with lectures to randomly attend, this might not be your first choice. What you can expect from us is a fun and rewarding atmosphere in class paired with optional Founder Talks and Startup Lounges (evening events) throughout the semester to get in touch with lots of role models, business models and a fair chance to develop your networks. Overall, you can expect a perfect introduction to central theories in entrepreneurship and the Startup Ecosystem at and around the University of Mannheim and beyond. Side note on choosing MAN 630 vs. alternatives: You should choose MAN 630 if you...  are interested in combining insights from lectures with readings at home and with insights gained from speakers in Startup maximize your learning.  are interested in startups and entrepreneurship in general and want to gain a top-level view on both entrepreneurship in theory and practice.  like the practical world but do not want to lose sight of the underlying academic foundations.  love aiming for the big picture and love discussing topics of interest from a variety of angles.  do not like courses based on keywords and phrases to learn but on concepts to put into perspective and forming your own sophisticated line of argumentation. ou should, however, not choose MAN 630 if you...  expect this to be a multiple-choice-style course of memorizing material and then jotting buzzwords down on the exam. of readings will get you frustrated – focus is set on understanding concepts rather than memorizing them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t> expect teaching staff to tell you what to learn and what to forget – this is up to you (see point above).  want to develop or advance your own startup project in class. Apply for MCEI courses MAN 631 or our MAN 633 Own Venture Track instead.  want to advance an existing startup project and get the feeling of what it is like to work in a startup with all the responsibilities this brings along, join our MAN 633 Inside the Venture Track instead.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>By the end of this course, students will have gained fundamental perspectives in theoretical and practical entrepreneurial mechanisms. They will gain experience with case studies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:www.mcei.de/teaching, “Student Portal” (more information about the registration process is available here)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 10</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Written exam (50%), Presentations (40%), Peer Evaluation (10%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Preliminary course work</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Michael Woywode</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1 Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.A. K&amp;W, LL.M., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
